--- a/src/test/java/testdata/TestData.xlsx
+++ b/src/test/java/testdata/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26102"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A118E03-219E-41EB-9AD5-C63A8D408673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{452B64F4-B3E5-4FF1-B3B2-430861E5630A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>email</t>
   </si>
@@ -42,19 +42,22 @@
     <t>ug@mail.com</t>
   </si>
   <si>
-    <t>dou</t>
+    <t>Ulrich77</t>
   </si>
   <si>
     <t>ad@gmail.com</t>
   </si>
   <si>
-    <t>dau</t>
-  </si>
-  <si>
-    <t>et@gmail.com</t>
-  </si>
-  <si>
-    <t>dos</t>
+    <t>Ulrich72</t>
+  </si>
+  <si>
+    <t>Ulrich73</t>
+  </si>
+  <si>
+    <t>et@gmail</t>
+  </si>
+  <si>
+    <t>Ulrich75</t>
   </si>
 </sst>
 </file>
@@ -99,9 +102,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -417,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -460,25 +464,36 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
+      <c r="A4" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{63D30B64-64CD-4BDD-81F7-D0FBFD4C697E}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{2090B02C-7CDE-4149-8C33-D9D6CD72A18C}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{8BCC9BD6-A6FF-422D-8D72-041163739D88}"/>
+    <hyperlink ref="A5" r:id="rId3" xr:uid="{B09BE93A-757B-4477-8DD3-24FCD8E6DBD5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/java/testdata/TestData.xlsx
+++ b/src/test/java/testdata/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26102"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{452B64F4-B3E5-4FF1-B3B2-430861E5630A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB745C2B-3A23-41AF-8D4B-EBDD37CAAA80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>email</t>
   </si>
@@ -39,25 +39,10 @@
     <t>passwordconf</t>
   </si>
   <si>
-    <t>ug@mail.com</t>
+    <t>gg@gmail.com</t>
   </si>
   <si>
-    <t>Ulrich77</t>
-  </si>
-  <si>
-    <t>ad@gmail.com</t>
-  </si>
-  <si>
-    <t>Ulrich72</t>
-  </si>
-  <si>
-    <t>Ulrich73</t>
-  </si>
-  <si>
-    <t>et@gmail</t>
-  </si>
-  <si>
-    <t>Ulrich75</t>
+    <t>Ulrich10</t>
   </si>
 </sst>
 </file>
@@ -102,10 +87,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -424,7 +408,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -457,43 +441,14 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
+      <c r="A3" s="1"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
+      <c r="A5" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{63D30B64-64CD-4BDD-81F7-D0FBFD4C697E}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{2090B02C-7CDE-4149-8C33-D9D6CD72A18C}"/>
-    <hyperlink ref="A5" r:id="rId3" xr:uid="{B09BE93A-757B-4477-8DD3-24FCD8E6DBD5}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{9A843EBE-8E98-49D6-9052-493DBC60CACD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/java/testdata/TestData.xlsx
+++ b/src/test/java/testdata/TestData.xlsx
@@ -1,34 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26102"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB745C2B-3A23-41AF-8D4B-EBDD37CAAA80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26029"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hambe\Desktop\Native Playright\Native-Playwright\src\test\java\testdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="users" sheetId="1" r:id="rId1"/>
+    <sheet name="users" sheetId="5" r:id="rId3"/>
+    <sheet name="articles" sheetId="3" r:id="rId4"/>
+    <sheet name="addarticles" sheetId="4" r:id="rId5"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>email</t>
   </si>
@@ -39,17 +33,32 @@
     <t>passwordconf</t>
   </si>
   <si>
-    <t>gg@gmail.com</t>
-  </si>
-  <si>
-    <t>Ulrich10</t>
+    <t>douuuuuuu</t>
+  </si>
+  <si>
+    <t>productName</t>
+  </si>
+  <si>
+    <t>T-shirt</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>T-shirt en coton biologique</t>
+  </si>
+  <si>
+    <t>Chaussures Hommes de Ville</t>
+  </si>
+  <si>
+    <t>bo@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,7 +67,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u val="single"/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -83,20 +98,116 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="22">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="21"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="15" builtinId="5"/>
+    <cellStyle name="Currency" xfId="16" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
+    <cellStyle name="Comma" xfId="18" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
+    <cellStyle name="Hyperlink" xfId="20"/>
+    <cellStyle name="Lien hypertexte" xfId="21" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -109,7 +220,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -404,21 +515,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB652C9F-099A-41F8-9006-2103D7CEE8EC}">
+  <sheetPr codeName="Feuil1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.424285714285714" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="32.42857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="14.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -429,27 +539,91 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" ht="14.4">
       <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1"/>
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{9A843EBE-8E98-49D6-9052-493DBC60CACD}"/>
+    <hyperlink ref="A2" r:id="rId1" display="bo@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38CDA9F-C971-4B2E-AC86-CF9964F5D7B7}">
+  <sheetPr codeName="Feuil2"/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.424285714285714" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="14.4">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="14.4">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97FA688-140F-4C43-A961-FC8FE6A2724D}">
+  <sheetPr codeName="Feuil3"/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.424285714285714" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="26.714285714285715" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="14.4">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14.4">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14.4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>